--- a/src/main/java/testdata/Book2.xlsx
+++ b/src/main/java/testdata/Book2.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="16635" windowHeight="2880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
+    <sheet name="Address" sheetId="3" r:id="rId3"/>
+    <sheet name="EditAddress" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:F2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -23,6 +27,66 @@
   </si>
   <si>
     <t>thogurubhagyaraj990@gmail.com</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>Bhagya</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>Personname</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Locationsearch</t>
+  </si>
+  <si>
+    <t>T BHAGYARAJ</t>
+  </si>
+  <si>
+    <t>Kavali</t>
+  </si>
+  <si>
+    <t>Bitragunta</t>
+  </si>
+  <si>
+    <t>Bogole</t>
+  </si>
+  <si>
+    <t>THOGURU BHAGYARAJ</t>
+  </si>
+  <si>
+    <t>Bogole Bitragunta</t>
   </si>
 </sst>
 </file>
@@ -35,10 +99,17 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A3E3E"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,141 +579,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1254,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1273,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -1213,4 +1287,203 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>9985480510</v>
+      </c>
+      <c r="E2">
+        <v>123456789</v>
+      </c>
+      <c r="F2">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="thogurubhagyaraj990@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="10.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>9985480510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>524142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="T BHAGYARAJ"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="22.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>9985480510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>524142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="THOGURU BHAGYARAJ"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>